--- a/17. Analise de Eventos - teste.xlsx
+++ b/17. Analise de Eventos - teste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Documents\eng_requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA960362-271A-4EF0-8752-FF0064AEFBD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777DC66A-036C-461C-8BC3-DEEBCE7A2B64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="2910" windowWidth="21090" windowHeight="9495" activeTab="2" xr2:uid="{D681D141-2C58-4DB0-BDD1-EEB5B9F9FEAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{D681D141-2C58-4DB0-BDD1-EEB5B9F9FEAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Analise de Eventos" sheetId="8" r:id="rId1"/>
@@ -657,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -774,175 +774,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -966,6 +798,183 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1283,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554133C2-6776-4A50-8DBF-B0A355B333E3}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,39 +1311,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="54" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="58" t="s">
+      <c r="G1" s="83"/>
+      <c r="H1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="59"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="46" t="s">
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="47"/>
+      <c r="L1" s="73"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1350,17 +1359,17 @@
       <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="48"/>
-      <c r="L2" s="49"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="75"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="65" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="7">
@@ -1380,9 +1389,9 @@
       <c r="L3" s="34"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="69"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="7">
         <v>2</v>
       </c>
@@ -1400,9 +1409,9 @@
       <c r="L4" s="31"/>
     </row>
     <row r="5" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="70"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="7">
         <v>3</v>
       </c>
@@ -1420,13 +1429,13 @@
       <c r="L5" s="31"/>
     </row>
     <row r="6" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="65" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="3">
@@ -1446,9 +1455,9 @@
       <c r="L6" s="31"/>
     </row>
     <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="69"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="3">
         <v>5</v>
       </c>
@@ -1466,9 +1475,9 @@
       <c r="L7" s="31"/>
     </row>
     <row r="8" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="70"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="3">
         <v>6</v>
       </c>
@@ -1512,13 +1521,13 @@
       <c r="L9" s="31"/>
     </row>
     <row r="10" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="68" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="3">
@@ -1538,9 +1547,9 @@
       <c r="L10" s="31"/>
     </row>
     <row r="11" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="75"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="43"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="7">
         <v>9</v>
       </c>
@@ -1558,13 +1567,13 @@
       <c r="L11" s="31"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="65" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="3">
@@ -1584,9 +1593,9 @@
       <c r="L12" s="31"/>
     </row>
     <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="76"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="69"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="3">
         <v>11</v>
       </c>
@@ -1604,9 +1613,9 @@
       <c r="L13" s="31"/>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="76"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="69"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="3">
         <v>12</v>
       </c>
@@ -1624,9 +1633,9 @@
       <c r="L14" s="31"/>
     </row>
     <row r="15" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="69"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="3">
         <v>13</v>
       </c>
@@ -1644,9 +1653,9 @@
       <c r="L15" s="31"/>
     </row>
     <row r="16" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="75"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="70"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="7">
         <v>14</v>
       </c>
@@ -1664,13 +1673,13 @@
       <c r="L16" s="31"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="87" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="7">
@@ -1690,9 +1699,9 @@
       <c r="L17" s="31"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="62"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="88"/>
       <c r="D18" s="7">
         <v>16</v>
       </c>
@@ -1710,9 +1719,9 @@
       <c r="L18" s="31"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="62"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="3">
         <v>17</v>
       </c>
@@ -1730,9 +1739,9 @@
       <c r="L19" s="31"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="63"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="89"/>
       <c r="D20" s="3">
         <v>18</v>
       </c>
@@ -1750,10 +1759,10 @@
       <c r="L20" s="32"/>
     </row>
     <row r="21" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="60" t="s">
         <v>83</v>
       </c>
       <c r="C21" s="22" t="s">
@@ -1777,8 +1786,8 @@
       <c r="M21" s="21"/>
     </row>
     <row r="22" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
-      <c r="B22" s="72"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="61"/>
       <c r="C22" s="22"/>
       <c r="D22" s="3">
         <v>20</v>
@@ -1798,13 +1807,13 @@
       <c r="M22" s="21"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="68" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="3">
@@ -1825,9 +1834,9 @@
       <c r="M23" s="21"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="43"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="3">
         <v>22</v>
       </c>
@@ -1846,9 +1855,9 @@
       <c r="M24" s="21"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="43"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="3">
         <v>23</v>
       </c>
@@ -1866,9 +1875,9 @@
       <c r="L25" s="31"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="43"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="3">
         <v>24</v>
       </c>
@@ -1886,13 +1895,13 @@
       <c r="L26" s="31"/>
     </row>
     <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="43"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="3">
         <v>25</v>
       </c>
@@ -1910,9 +1919,9 @@
       <c r="L27" s="33"/>
     </row>
     <row r="28" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="43"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="3">
         <v>26</v>
       </c>
@@ -1930,9 +1939,9 @@
       <c r="L28" s="31"/>
     </row>
     <row r="29" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="43"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="3">
         <v>27</v>
       </c>
@@ -1976,13 +1985,13 @@
       <c r="L30" s="31"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="68" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="3">
@@ -2002,9 +2011,9 @@
       <c r="L31" s="31"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="43"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="3">
         <v>30</v>
       </c>
@@ -2022,9 +2031,9 @@
       <c r="L32" s="31"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="43"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="3">
         <v>31</v>
       </c>
@@ -2042,9 +2051,9 @@
       <c r="L33" s="31"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="43"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="68"/>
       <c r="D34" s="3">
         <v>32</v>
       </c>
@@ -2062,9 +2071,9 @@
       <c r="L34" s="31"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="43"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="3">
         <v>33</v>
       </c>
@@ -2082,13 +2091,13 @@
       <c r="L35" s="31"/>
     </row>
     <row r="36" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="68" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="7">
@@ -2108,9 +2117,9 @@
       <c r="L36" s="3"/>
     </row>
     <row r="37" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="43"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="68"/>
       <c r="D37" s="3">
         <v>35</v>
       </c>
@@ -2130,25 +2139,6 @@
   </sheetData>
   <autoFilter ref="A1:A37" xr:uid="{6C54F4DC-FF66-4049-998F-DAF2346BB5F5}"/>
   <mergeCells count="35">
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="C12:C16"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="A36:A37"/>
@@ -2165,6 +2155,25 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B17:B20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2176,7 +2185,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2192,13 +2201,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="65" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="7">
@@ -2218,9 +2227,9 @@
       <c r="L1" s="42"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="69"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="7">
         <v>2</v>
       </c>
@@ -2238,9 +2247,9 @@
       <c r="L2" s="40"/>
     </row>
     <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="70"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="7">
         <v>3</v>
       </c>
@@ -2258,13 +2267,13 @@
       <c r="L3" s="40"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="65" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="3">
@@ -2284,9 +2293,9 @@
       <c r="L4" s="40"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="69"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="3">
         <v>5</v>
       </c>
@@ -2304,9 +2313,9 @@
       <c r="L5" s="40"/>
     </row>
     <row r="6" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="70"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="3">
         <v>6</v>
       </c>
@@ -2324,13 +2333,13 @@
       <c r="L6" s="40"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="65" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="3">
@@ -2350,9 +2359,9 @@
       <c r="L7" s="40"/>
     </row>
     <row r="8" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="69"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="3">
         <v>11</v>
       </c>
@@ -2370,9 +2379,9 @@
       <c r="L8" s="40"/>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="69"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="3">
         <v>12</v>
       </c>
@@ -2390,9 +2399,9 @@
       <c r="L9" s="40"/>
     </row>
     <row r="10" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="69"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="3">
         <v>13</v>
       </c>
@@ -2410,9 +2419,9 @@
       <c r="L10" s="40"/>
     </row>
     <row r="11" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="75"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="70"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="7">
         <v>14</v>
       </c>
@@ -2430,13 +2439,13 @@
       <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="87" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="7">
@@ -2456,9 +2465,9 @@
       <c r="L12" s="40"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="62"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="88"/>
       <c r="D13" s="7">
         <v>16</v>
       </c>
@@ -2476,9 +2485,9 @@
       <c r="L13" s="40"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="62"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="88"/>
       <c r="D14" s="3">
         <v>17</v>
       </c>
@@ -2496,9 +2505,9 @@
       <c r="L14" s="40"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="63"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="89"/>
       <c r="D15" s="3">
         <v>18</v>
       </c>
@@ -2516,10 +2525,10 @@
       <c r="L15" s="38"/>
     </row>
     <row r="16" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="93" t="s">
         <v>83</v>
       </c>
       <c r="C16" s="41" t="s">
@@ -2543,8 +2552,8 @@
       <c r="M16" s="21"/>
     </row>
     <row r="17" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
-      <c r="B17" s="72"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="110"/>
       <c r="C17" s="41"/>
       <c r="D17" s="3">
         <v>20</v>
@@ -2563,11 +2572,11 @@
       <c r="L17" s="40"/>
       <c r="M17" s="21"/>
     </row>
-    <row r="18" spans="1:13" ht="78" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="45" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -2590,13 +2599,13 @@
       <c r="L18" s="40"/>
     </row>
     <row r="19" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="68" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="7">
@@ -2616,9 +2625,9 @@
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="43"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="3">
         <v>35</v>
       </c>
@@ -2637,25 +2646,26 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="C7:C11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="C12:C15"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2663,8 +2673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B9FA35-C7F8-4ADE-8D74-A1B9F3D12163}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2681,39 +2691,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="54" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="58" t="s">
+      <c r="G1" s="83"/>
+      <c r="H1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="59"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="46" t="s">
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="47"/>
+      <c r="L1" s="73"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2729,23 +2739,23 @@
       <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="48"/>
-      <c r="L2" s="49"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="75"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="65" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="95" t="s">
+      <c r="E3" s="43" t="s">
         <v>109</v>
       </c>
       <c r="F3" s="40"/>
@@ -2759,15 +2769,15 @@
       <c r="L3" s="40"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
-      <c r="B4" s="96" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="69"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="43" t="s">
         <v>110</v>
       </c>
       <c r="G4" s="40" t="s">
@@ -2780,13 +2790,13 @@
       <c r="L4" s="40"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="69"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="95" t="s">
+      <c r="E5" s="43" t="s">
         <v>111</v>
       </c>
       <c r="F5" s="40"/>
@@ -2800,13 +2810,13 @@
       <c r="L5" s="40"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="69"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="66"/>
       <c r="D6" s="3">
         <v>4</v>
       </c>
-      <c r="E6" s="95" t="s">
+      <c r="E6" s="43" t="s">
         <v>113</v>
       </c>
       <c r="F6" s="40"/>
@@ -2820,13 +2830,13 @@
       <c r="L6" s="40"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="69"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="3">
         <v>5</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="43" t="s">
         <v>114</v>
       </c>
       <c r="F7" s="40" t="s">
@@ -2840,13 +2850,13 @@
       <c r="L7" s="40"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="70"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="3">
         <v>6</v>
       </c>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="43" t="s">
         <v>49</v>
       </c>
       <c r="F8" s="40" t="s">
@@ -2860,17 +2870,17 @@
       <c r="L8" s="40"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
-      <c r="B9" s="98" t="s">
+      <c r="A9" s="59"/>
+      <c r="B9" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="65" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="3">
         <v>7</v>
       </c>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="43" t="s">
         <v>71</v>
       </c>
       <c r="F9" s="40"/>
@@ -2884,13 +2894,13 @@
       <c r="L9" s="40"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="70"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="3">
         <v>8</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="43" t="s">
         <v>49</v>
       </c>
       <c r="F10" s="40" t="s">
@@ -2904,8 +2914,8 @@
       <c r="L10" s="38"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
-      <c r="B11" s="100" t="s">
+      <c r="A11" s="59"/>
+      <c r="B11" s="44" t="s">
         <v>83</v>
       </c>
       <c r="C11" s="39" t="s">
@@ -2914,7 +2924,7 @@
       <c r="D11" s="3">
         <v>9</v>
       </c>
-      <c r="E11" s="95" t="s">
+      <c r="E11" s="43" t="s">
         <v>85</v>
       </c>
       <c r="F11" s="40"/>
@@ -2928,8 +2938,8 @@
       <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="75"/>
-      <c r="B12" s="101" t="s">
+      <c r="A12" s="70"/>
+      <c r="B12" s="45" t="s">
         <v>105</v>
       </c>
       <c r="C12" s="40" t="s">
@@ -2938,7 +2948,7 @@
       <c r="D12" s="3">
         <v>11</v>
       </c>
-      <c r="E12" s="95" t="s">
+      <c r="E12" s="43" t="s">
         <v>116</v>
       </c>
       <c r="F12" s="3"/>
@@ -2953,16 +2963,16 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="K1:L2"/>
     <mergeCell ref="C3:C8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
@@ -2975,7 +2985,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2991,35 +3001,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="58" t="s">
+      <c r="F1" s="83"/>
+      <c r="G1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="46" t="s">
+      <c r="H1" s="85"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="47"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3035,26 +3045,26 @@
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="104">
+      <c r="C3" s="48">
         <v>1</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105" t="s">
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="12"/>
@@ -3062,22 +3072,22 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="104">
+      <c r="C4" s="48">
         <v>2</v>
       </c>
-      <c r="D4" s="104" t="s">
+      <c r="D4" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105" t="s">
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="12"/>
@@ -3085,22 +3095,22 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="104">
+      <c r="C5" s="48">
         <v>3</v>
       </c>
-      <c r="D5" s="104" t="s">
+      <c r="D5" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105" t="s">
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="12"/>
@@ -3108,22 +3118,22 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="104">
+      <c r="C6" s="48">
         <v>4</v>
       </c>
-      <c r="D6" s="104" t="s">
+      <c r="D6" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105" t="s">
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="12"/>
@@ -3131,22 +3141,22 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="104">
+      <c r="C7" s="48">
         <v>5</v>
       </c>
-      <c r="D7" s="106" t="s">
+      <c r="D7" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105" t="s">
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49" t="s">
         <v>23</v>
       </c>
       <c r="I7" s="7"/>
@@ -3154,22 +3164,22 @@
       <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="104">
+      <c r="C8" s="48">
         <v>6</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105" t="s">
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="7"/>
@@ -3177,22 +3187,22 @@
       <c r="K8" s="18"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="104">
+      <c r="C9" s="48">
         <v>7</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105" t="s">
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49" t="s">
         <v>23</v>
       </c>
       <c r="I9" s="7"/>
@@ -3236,35 +3246,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="91"/>
-      <c r="G1" s="87" t="s">
+      <c r="F1" s="105"/>
+      <c r="G1" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="88"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="83" t="s">
+      <c r="H1" s="102"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="84"/>
+      <c r="K1" s="98"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="93"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="107"/>
       <c r="E2" s="15" t="s">
         <v>6</v>
       </c>
@@ -3280,14 +3290,14 @@
       <c r="I2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="100"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="96" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="8">
@@ -3307,8 +3317,8 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="8">
         <v>2</v>
       </c>
@@ -3326,8 +3336,8 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="82"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="8">
         <v>3</v>
       </c>
@@ -3427,35 +3437,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="58" t="s">
+      <c r="F1" s="83"/>
+      <c r="G1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="46" t="s">
+      <c r="H1" s="85"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="47"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3471,8 +3481,8 @@
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
     </row>
     <row r="3" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">

--- a/17. Analise de Eventos - teste.xlsx
+++ b/17. Analise de Eventos - teste.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Documents\eng_requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777DC66A-036C-461C-8BC3-DEEBCE7A2B64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5224C454-D47F-43A1-8BE9-241D005B3AB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{D681D141-2C58-4DB0-BDD1-EEB5B9F9FEAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="3" activeTab="4" xr2:uid="{D681D141-2C58-4DB0-BDD1-EEB5B9F9FEAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Analise de Eventos" sheetId="8" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="10" r:id="rId2"/>
-    <sheet name="Planilha1" sheetId="9" r:id="rId3"/>
-    <sheet name="Analise de Eventos - Relatórios" sheetId="4" r:id="rId4"/>
-    <sheet name="Analise de Eventos - Notificaco" sheetId="6" r:id="rId5"/>
-    <sheet name="Analise de Evento - Financeiro" sheetId="7" r:id="rId6"/>
+    <sheet name="Planilha3" sheetId="11" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="10" r:id="rId3"/>
+    <sheet name="Analise de Eventos - Servicos" sheetId="9" r:id="rId4"/>
+    <sheet name="Analise de Eventos - Relatórios" sheetId="4" r:id="rId5"/>
+    <sheet name="Analise de Eventos - Notificaco" sheetId="6" r:id="rId6"/>
+    <sheet name="Analise de Evento - Financeiro" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Analise de Eventos'!$A$1:$A$37</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="125">
   <si>
     <t>Capacidade</t>
   </si>
@@ -657,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -799,11 +800,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -814,17 +878,35 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -835,83 +917,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -922,9 +929,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -966,15 +979,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1292,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554133C2-6776-4A50-8DBF-B0A355B333E3}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,39 +1315,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="80" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="84" t="s">
+      <c r="G1" s="68"/>
+      <c r="H1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="72" t="s">
+      <c r="I1" s="70"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="73"/>
+      <c r="L1" s="58"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1359,17 +1363,17 @@
       <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="74"/>
-      <c r="L2" s="75"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="60"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="79" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="7">
@@ -1389,9 +1393,9 @@
       <c r="L3" s="34"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="66"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="7">
         <v>2</v>
       </c>
@@ -1409,9 +1413,9 @@
       <c r="L4" s="31"/>
     </row>
     <row r="5" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="67"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="81"/>
       <c r="D5" s="7">
         <v>3</v>
       </c>
@@ -1429,13 +1433,13 @@
       <c r="L5" s="31"/>
     </row>
     <row r="6" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="79" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="3">
@@ -1455,9 +1459,9 @@
       <c r="L6" s="31"/>
     </row>
     <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="66"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="3">
         <v>5</v>
       </c>
@@ -1475,9 +1479,9 @@
       <c r="L7" s="31"/>
     </row>
     <row r="8" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="67"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="3">
         <v>6</v>
       </c>
@@ -1521,13 +1525,13 @@
       <c r="L9" s="31"/>
     </row>
     <row r="10" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="54" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="3">
@@ -1547,9 +1551,9 @@
       <c r="L10" s="31"/>
     </row>
     <row r="11" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="68"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="7">
         <v>9</v>
       </c>
@@ -1567,13 +1571,13 @@
       <c r="L11" s="31"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="79" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="3">
@@ -1593,9 +1597,9 @@
       <c r="L12" s="31"/>
     </row>
     <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="66"/>
+      <c r="A13" s="87"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="3">
         <v>11</v>
       </c>
@@ -1613,9 +1617,9 @@
       <c r="L13" s="31"/>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="66"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="3">
         <v>12</v>
       </c>
@@ -1633,9 +1637,9 @@
       <c r="L14" s="31"/>
     </row>
     <row r="15" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="66"/>
+      <c r="A15" s="87"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="80"/>
       <c r="D15" s="3">
         <v>13</v>
       </c>
@@ -1653,9 +1657,9 @@
       <c r="L15" s="31"/>
     </row>
     <row r="16" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="67"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="81"/>
       <c r="D16" s="7">
         <v>14</v>
       </c>
@@ -1673,13 +1677,13 @@
       <c r="L16" s="31"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="72" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="7">
@@ -1699,9 +1703,9 @@
       <c r="L17" s="31"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="88"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="73"/>
       <c r="D18" s="7">
         <v>16</v>
       </c>
@@ -1719,9 +1723,9 @@
       <c r="L18" s="31"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="88"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="3">
         <v>17</v>
       </c>
@@ -1739,9 +1743,9 @@
       <c r="L19" s="31"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="89"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="3">
         <v>18</v>
       </c>
@@ -1759,10 +1763,10 @@
       <c r="L20" s="32"/>
     </row>
     <row r="21" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="82" t="s">
         <v>83</v>
       </c>
       <c r="C21" s="22" t="s">
@@ -1786,8 +1790,8 @@
       <c r="M21" s="21"/>
     </row>
     <row r="22" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="61"/>
+      <c r="A22" s="87"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="22"/>
       <c r="D22" s="3">
         <v>20</v>
@@ -1807,13 +1811,13 @@
       <c r="M22" s="21"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="54" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="3">
@@ -1834,9 +1838,9 @@
       <c r="M23" s="21"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="68"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="3">
         <v>22</v>
       </c>
@@ -1855,9 +1859,9 @@
       <c r="M24" s="21"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="68"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="3">
         <v>23</v>
       </c>
@@ -1875,9 +1879,9 @@
       <c r="L25" s="31"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="68"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="3">
         <v>24</v>
       </c>
@@ -1895,13 +1899,13 @@
       <c r="L26" s="31"/>
     </row>
     <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="68"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="3">
         <v>25</v>
       </c>
@@ -1919,9 +1923,9 @@
       <c r="L27" s="33"/>
     </row>
     <row r="28" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="68"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="3">
         <v>26</v>
       </c>
@@ -1939,9 +1943,9 @@
       <c r="L28" s="31"/>
     </row>
     <row r="29" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="68"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="3">
         <v>27</v>
       </c>
@@ -1985,13 +1989,13 @@
       <c r="L30" s="31"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="90" t="s">
+      <c r="B31" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="68" t="s">
+      <c r="C31" s="54" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="3">
@@ -2011,9 +2015,9 @@
       <c r="L31" s="31"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="68"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="3">
         <v>30</v>
       </c>
@@ -2031,9 +2035,9 @@
       <c r="L32" s="31"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="68"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="3">
         <v>31</v>
       </c>
@@ -2051,9 +2055,9 @@
       <c r="L33" s="31"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="68"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="3">
         <v>32</v>
       </c>
@@ -2071,9 +2075,9 @@
       <c r="L34" s="31"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="68"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="3">
         <v>33</v>
       </c>
@@ -2091,13 +2095,13 @@
       <c r="L35" s="31"/>
     </row>
     <row r="36" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="68" t="s">
+      <c r="C36" s="54" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="7">
@@ -2117,9 +2121,9 @@
       <c r="L36" s="3"/>
     </row>
     <row r="37" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="68"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="3">
         <v>35</v>
       </c>
@@ -2139,6 +2143,25 @@
   </sheetData>
   <autoFilter ref="A1:A37" xr:uid="{6C54F4DC-FF66-4049-998F-DAF2346BB5F5}"/>
   <mergeCells count="35">
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="C12:C16"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="A36:A37"/>
@@ -2155,25 +2178,6 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B17:B20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2181,6 +2185,159 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B752B8-4BF9-436D-90D9-D17BB26AF618}">
+  <dimension ref="A2:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="58"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="88"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="59"/>
+      <c r="L3" s="60"/>
+    </row>
+    <row r="4" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="87"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="86"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="7">
+        <v>3</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0621A7A0-6B09-4B1C-9C9B-5A3BC2E21D39}">
   <dimension ref="A1:M20"/>
   <sheetViews>
@@ -2201,13 +2358,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="79" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="7">
@@ -2227,9 +2384,9 @@
       <c r="L1" s="42"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="80"/>
       <c r="D2" s="7">
         <v>2</v>
       </c>
@@ -2247,9 +2404,9 @@
       <c r="L2" s="40"/>
     </row>
     <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="67"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="81"/>
       <c r="D3" s="7">
         <v>3</v>
       </c>
@@ -2267,13 +2424,13 @@
       <c r="L3" s="40"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="79" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="3">
@@ -2293,9 +2450,9 @@
       <c r="L4" s="40"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="66"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="80"/>
       <c r="D5" s="3">
         <v>5</v>
       </c>
@@ -2313,9 +2470,9 @@
       <c r="L5" s="40"/>
     </row>
     <row r="6" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="67"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="3">
         <v>6</v>
       </c>
@@ -2333,13 +2490,13 @@
       <c r="L6" s="40"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="79" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="3">
@@ -2359,9 +2516,9 @@
       <c r="L7" s="40"/>
     </row>
     <row r="8" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="66"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="80"/>
       <c r="D8" s="3">
         <v>11</v>
       </c>
@@ -2379,9 +2536,9 @@
       <c r="L8" s="40"/>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="66"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="80"/>
       <c r="D9" s="3">
         <v>12</v>
       </c>
@@ -2399,9 +2556,9 @@
       <c r="L9" s="40"/>
     </row>
     <row r="10" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="66"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="3">
         <v>13</v>
       </c>
@@ -2419,9 +2576,9 @@
       <c r="L10" s="40"/>
     </row>
     <row r="11" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="67"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="81"/>
       <c r="D11" s="7">
         <v>14</v>
       </c>
@@ -2439,13 +2596,13 @@
       <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="72" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="7">
@@ -2465,9 +2622,9 @@
       <c r="L12" s="40"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="110"/>
-      <c r="C13" s="88"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="73"/>
       <c r="D13" s="7">
         <v>16</v>
       </c>
@@ -2485,9 +2642,9 @@
       <c r="L13" s="40"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="110"/>
-      <c r="C14" s="88"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="73"/>
       <c r="D14" s="3">
         <v>17</v>
       </c>
@@ -2505,9 +2662,9 @@
       <c r="L14" s="40"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="89"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="3">
         <v>18</v>
       </c>
@@ -2525,10 +2682,10 @@
       <c r="L15" s="38"/>
     </row>
     <row r="16" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="95" t="s">
         <v>83</v>
       </c>
       <c r="C16" s="41" t="s">
@@ -2552,8 +2709,8 @@
       <c r="M16" s="21"/>
     </row>
     <row r="17" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="110"/>
+      <c r="A17" s="87"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="41"/>
       <c r="D17" s="3">
         <v>20</v>
@@ -2599,13 +2756,13 @@
       <c r="L18" s="40"/>
     </row>
     <row r="19" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="111" t="s">
+      <c r="B19" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="54" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="7">
@@ -2625,9 +2782,9 @@
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="68"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="3">
         <v>35</v>
       </c>
@@ -2646,35 +2803,35 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B9FA35-C7F8-4ADE-8D74-A1B9F3D12163}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2691,39 +2848,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="80" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="84" t="s">
+      <c r="G1" s="68"/>
+      <c r="H1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="72" t="s">
+      <c r="I1" s="70"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="73"/>
+      <c r="L1" s="58"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2739,17 +2896,17 @@
       <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="74"/>
-      <c r="L2" s="75"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="60"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="85" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="3">
@@ -2769,11 +2926,13 @@
       <c r="L3" s="40"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="91" t="s">
+      <c r="A4" s="87"/>
+      <c r="B4" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="66"/>
+      <c r="C4" s="80" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" s="3">
         <v>2</v>
       </c>
@@ -2790,9 +2949,9 @@
       <c r="L4" s="40"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="66"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="80"/>
       <c r="D5" s="3">
         <v>3</v>
       </c>
@@ -2810,9 +2969,9 @@
       <c r="L5" s="40"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="66"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="80"/>
       <c r="D6" s="3">
         <v>4</v>
       </c>
@@ -2830,9 +2989,9 @@
       <c r="L6" s="40"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="66"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="3">
         <v>5</v>
       </c>
@@ -2850,9 +3009,9 @@
       <c r="L7" s="40"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="67"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="3">
         <v>6</v>
       </c>
@@ -2870,11 +3029,11 @@
       <c r="L8" s="40"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="93" t="s">
+      <c r="A9" s="87"/>
+      <c r="B9" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="79" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="3">
@@ -2894,9 +3053,9 @@
       <c r="L9" s="40"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="67"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="81"/>
       <c r="D10" s="3">
         <v>8</v>
       </c>
@@ -2914,7 +3073,7 @@
       <c r="L10" s="38"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
+      <c r="A11" s="87"/>
       <c r="B11" s="44" t="s">
         <v>83</v>
       </c>
@@ -2938,7 +3097,7 @@
       <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="45" t="s">
         <v>105</v>
       </c>
@@ -2946,13 +3105,13 @@
         <v>12</v>
       </c>
       <c r="D12" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="43" t="s">
         <v>116</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="53" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="3"/>
@@ -2963,29 +3122,30 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="C4:C8"/>
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="B4:B8"/>
-    <mergeCell ref="K1:L2"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DABD84-0F9A-4686-9110-0C421D5326F1}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3001,35 +3161,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="80" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="83"/>
-      <c r="G1" s="84" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="85"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="72" t="s">
+      <c r="H1" s="70"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="73"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3045,8 +3205,8 @@
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
@@ -3225,12 +3385,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB973BCD-1CCE-48B6-A608-958742123FE9}">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D3" sqref="D3:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3246,35 +3406,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="104" t="s">
+      <c r="E1" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="105"/>
-      <c r="G1" s="101" t="s">
+      <c r="F1" s="109"/>
+      <c r="G1" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="97" t="s">
+      <c r="H1" s="106"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="98"/>
+      <c r="K1" s="102"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="107"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="111"/>
       <c r="E2" s="15" t="s">
         <v>6</v>
       </c>
@@ -3290,14 +3450,14 @@
       <c r="I2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="99"/>
-      <c r="K2" s="100"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="100" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="8">
@@ -3317,8 +3477,8 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="100"/>
       <c r="C4" s="8">
         <v>2</v>
       </c>
@@ -3336,8 +3496,8 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
-      <c r="B5" s="96"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="8">
         <v>3</v>
       </c>
@@ -3415,7 +3575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674548DA-3DA7-4F3E-BF1C-A9AFDBAD879D}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -3437,35 +3597,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="80" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="83"/>
-      <c r="G1" s="84" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="85"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="72" t="s">
+      <c r="H1" s="70"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="73"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3481,8 +3641,8 @@
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">

--- a/17. Analise de Eventos - teste.xlsx
+++ b/17. Analise de Eventos - teste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Documents\eng_requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5224C454-D47F-43A1-8BE9-241D005B3AB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021FD255-E76D-4E23-9ED8-BF00F851B3EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="3" activeTab="4" xr2:uid="{D681D141-2C58-4DB0-BDD1-EEB5B9F9FEAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{D681D141-2C58-4DB0-BDD1-EEB5B9F9FEAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Analise de Eventos" sheetId="8" r:id="rId1"/>
@@ -803,15 +803,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -870,54 +918,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -932,10 +932,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1296,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554133C2-6776-4A50-8DBF-B0A355B333E3}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:L2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,39 +1315,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="65" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="69" t="s">
+      <c r="G1" s="84"/>
+      <c r="H1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="70"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="57" t="s">
+      <c r="I1" s="86"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="58"/>
+      <c r="L1" s="74"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1363,17 +1363,17 @@
       <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="59"/>
-      <c r="L2" s="60"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="76"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="66" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="7">
@@ -1393,9 +1393,9 @@
       <c r="L3" s="34"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="80"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="7">
         <v>2</v>
       </c>
@@ -1413,9 +1413,9 @@
       <c r="L4" s="31"/>
     </row>
     <row r="5" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="81"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="7">
         <v>3</v>
       </c>
@@ -1433,13 +1433,13 @@
       <c r="L5" s="31"/>
     </row>
     <row r="6" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="66" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="3">
@@ -1459,9 +1459,9 @@
       <c r="L6" s="31"/>
     </row>
     <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="80"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="3">
         <v>5</v>
       </c>
@@ -1479,9 +1479,9 @@
       <c r="L7" s="31"/>
     </row>
     <row r="8" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="81"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="3">
         <v>6</v>
       </c>
@@ -1525,13 +1525,13 @@
       <c r="L9" s="31"/>
     </row>
     <row r="10" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="69" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="3">
@@ -1551,9 +1551,9 @@
       <c r="L10" s="31"/>
     </row>
     <row r="11" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="54"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="7">
         <v>9</v>
       </c>
@@ -1571,13 +1571,13 @@
       <c r="L11" s="31"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="66" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="3">
@@ -1597,9 +1597,9 @@
       <c r="L12" s="31"/>
     </row>
     <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="87"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="80"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="3">
         <v>11</v>
       </c>
@@ -1617,9 +1617,9 @@
       <c r="L13" s="31"/>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="87"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="80"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="3">
         <v>12</v>
       </c>
@@ -1637,9 +1637,9 @@
       <c r="L14" s="31"/>
     </row>
     <row r="15" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="87"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="80"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="3">
         <v>13</v>
       </c>
@@ -1657,9 +1657,9 @@
       <c r="L15" s="31"/>
     </row>
     <row r="16" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="81"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="7">
         <v>14</v>
       </c>
@@ -1677,13 +1677,13 @@
       <c r="L16" s="31"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="88" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="7">
@@ -1703,9 +1703,9 @@
       <c r="L17" s="31"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="73"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="7">
         <v>16</v>
       </c>
@@ -1723,9 +1723,9 @@
       <c r="L18" s="31"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="73"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="89"/>
       <c r="D19" s="3">
         <v>17</v>
       </c>
@@ -1743,9 +1743,9 @@
       <c r="L19" s="31"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="74"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="90"/>
       <c r="D20" s="3">
         <v>18</v>
       </c>
@@ -1763,10 +1763,10 @@
       <c r="L20" s="32"/>
     </row>
     <row r="21" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="85" t="s">
+      <c r="A21" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="61" t="s">
         <v>83</v>
       </c>
       <c r="C21" s="22" t="s">
@@ -1790,8 +1790,8 @@
       <c r="M21" s="21"/>
     </row>
     <row r="22" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="87"/>
-      <c r="B22" s="83"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="22"/>
       <c r="D22" s="3">
         <v>20</v>
@@ -1811,13 +1811,13 @@
       <c r="M22" s="21"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="69" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="3">
@@ -1838,9 +1838,9 @@
       <c r="M23" s="21"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="54"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="3">
         <v>22</v>
       </c>
@@ -1859,9 +1859,9 @@
       <c r="M24" s="21"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="54"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="3">
         <v>23</v>
       </c>
@@ -1879,9 +1879,9 @@
       <c r="L25" s="31"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="54"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="69"/>
       <c r="D26" s="3">
         <v>24</v>
       </c>
@@ -1899,13 +1899,13 @@
       <c r="L26" s="31"/>
     </row>
     <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="54"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="3">
         <v>25</v>
       </c>
@@ -1923,9 +1923,9 @@
       <c r="L27" s="33"/>
     </row>
     <row r="28" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="54"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="3">
         <v>26</v>
       </c>
@@ -1943,9 +1943,9 @@
       <c r="L28" s="31"/>
     </row>
     <row r="29" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="54"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="69"/>
       <c r="D29" s="3">
         <v>27</v>
       </c>
@@ -1989,13 +1989,13 @@
       <c r="L30" s="31"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="69" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="3">
@@ -2015,9 +2015,9 @@
       <c r="L31" s="31"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="54"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="69"/>
       <c r="D32" s="3">
         <v>30</v>
       </c>
@@ -2035,9 +2035,9 @@
       <c r="L32" s="31"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="54"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="3">
         <v>31</v>
       </c>
@@ -2055,9 +2055,9 @@
       <c r="L33" s="31"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="54"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="69"/>
       <c r="D34" s="3">
         <v>32</v>
       </c>
@@ -2075,9 +2075,9 @@
       <c r="L34" s="31"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
-      <c r="B35" s="75"/>
-      <c r="C35" s="54"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="69"/>
       <c r="D35" s="3">
         <v>33</v>
       </c>
@@ -2095,13 +2095,13 @@
       <c r="L35" s="31"/>
     </row>
     <row r="36" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="56" t="s">
+      <c r="A36" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="69" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="7">
@@ -2121,9 +2121,9 @@
       <c r="L36" s="3"/>
     </row>
     <row r="37" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="54"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="69"/>
       <c r="D37" s="3">
         <v>35</v>
       </c>
@@ -2143,25 +2143,6 @@
   </sheetData>
   <autoFilter ref="A1:A37" xr:uid="{6C54F4DC-FF66-4049-998F-DAF2346BB5F5}"/>
   <mergeCells count="35">
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="C12:C16"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="A36:A37"/>
@@ -2178,6 +2159,25 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B17:B20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2203,39 +2203,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="65" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69" t="s">
+      <c r="G2" s="84"/>
+      <c r="H2" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="57" t="s">
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="58"/>
+      <c r="L2" s="74"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="88"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2251,17 +2251,17 @@
       <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="60"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="76"/>
     </row>
     <row r="4" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="59" t="s">
         <v>79</v>
       </c>
       <c r="B4" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="66" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="16">
@@ -2281,9 +2281,9 @@
       <c r="L4" s="53"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="93"/>
-      <c r="C5" s="80"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="3">
         <v>2</v>
       </c>
@@ -2301,9 +2301,9 @@
       <c r="L5" s="53"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="94"/>
-      <c r="C6" s="81"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="7">
         <v>3</v>
       </c>
@@ -2341,7 +2341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0621A7A0-6B09-4B1C-9C9B-5A3BC2E21D39}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2358,13 +2358,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="54" t="s">
         <v>78</v>
       </c>
       <c r="B1" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="66" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="7">
@@ -2384,9 +2384,9 @@
       <c r="L1" s="42"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
+      <c r="A2" s="54"/>
       <c r="B2" s="93"/>
-      <c r="C2" s="80"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="7">
         <v>2</v>
       </c>
@@ -2404,9 +2404,9 @@
       <c r="L2" s="40"/>
     </row>
     <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="94"/>
-      <c r="C3" s="81"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="7">
         <v>3</v>
       </c>
@@ -2424,13 +2424,13 @@
       <c r="L3" s="40"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="54" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="66" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="3">
@@ -2450,9 +2450,9 @@
       <c r="L4" s="40"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="93"/>
-      <c r="C5" s="80"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="3">
         <v>5</v>
       </c>
@@ -2470,9 +2470,9 @@
       <c r="L5" s="40"/>
     </row>
     <row r="6" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="94"/>
-      <c r="C6" s="81"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="3">
         <v>6</v>
       </c>
@@ -2490,13 +2490,13 @@
       <c r="L6" s="40"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="59" t="s">
         <v>78</v>
       </c>
       <c r="B7" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="66" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="3">
@@ -2516,9 +2516,9 @@
       <c r="L7" s="40"/>
     </row>
     <row r="8" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="87"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="96"/>
-      <c r="C8" s="80"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="3">
         <v>11</v>
       </c>
@@ -2536,9 +2536,9 @@
       <c r="L8" s="40"/>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="87"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="96"/>
-      <c r="C9" s="80"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="3">
         <v>12</v>
       </c>
@@ -2556,9 +2556,9 @@
       <c r="L9" s="40"/>
     </row>
     <row r="10" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="96"/>
-      <c r="C10" s="80"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="3">
         <v>13</v>
       </c>
@@ -2576,9 +2576,9 @@
       <c r="L10" s="40"/>
     </row>
     <row r="11" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="81"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="7">
         <v>14</v>
       </c>
@@ -2596,13 +2596,13 @@
       <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="54" t="s">
         <v>78</v>
       </c>
       <c r="B12" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="88" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="7">
@@ -2622,9 +2622,9 @@
       <c r="L12" s="40"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="96"/>
-      <c r="C13" s="73"/>
+      <c r="C13" s="89"/>
       <c r="D13" s="7">
         <v>16</v>
       </c>
@@ -2642,9 +2642,9 @@
       <c r="L13" s="40"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="96"/>
-      <c r="C14" s="73"/>
+      <c r="C14" s="89"/>
       <c r="D14" s="3">
         <v>17</v>
       </c>
@@ -2662,9 +2662,9 @@
       <c r="L14" s="40"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="74"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="90"/>
       <c r="D15" s="3">
         <v>18</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="L15" s="38"/>
     </row>
     <row r="16" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="59" t="s">
         <v>78</v>
       </c>
       <c r="B16" s="95" t="s">
@@ -2709,7 +2709,7 @@
       <c r="M16" s="21"/>
     </row>
     <row r="17" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="87"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="96"/>
       <c r="C17" s="41"/>
       <c r="D17" s="3">
@@ -2756,13 +2756,13 @@
       <c r="L18" s="40"/>
     </row>
     <row r="19" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="69" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="7">
@@ -2782,9 +2782,9 @@
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="54"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="3">
         <v>35</v>
       </c>
@@ -2803,23 +2803,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="C7:C11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="C12:C15"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2831,7 +2831,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2848,39 +2848,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="65" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="69" t="s">
+      <c r="G1" s="84"/>
+      <c r="H1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="70"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="57" t="s">
+      <c r="I1" s="86"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="58"/>
+      <c r="L1" s="74"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2896,11 +2896,11 @@
       <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="59"/>
-      <c r="L2" s="60"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="76"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="59" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="46" t="s">
@@ -2926,11 +2926,11 @@
       <c r="L3" s="40"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="67" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="3">
@@ -2949,9 +2949,9 @@
       <c r="L4" s="40"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="93"/>
-      <c r="C5" s="80"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="3">
         <v>3</v>
       </c>
@@ -2969,9 +2969,9 @@
       <c r="L5" s="40"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="93"/>
-      <c r="C6" s="80"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="3">
         <v>4</v>
       </c>
@@ -2989,9 +2989,9 @@
       <c r="L6" s="40"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="87"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="93"/>
-      <c r="C7" s="80"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="3">
         <v>5</v>
       </c>
@@ -3009,9 +3009,9 @@
       <c r="L7" s="40"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="87"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="94"/>
-      <c r="C8" s="81"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="3">
         <v>6</v>
       </c>
@@ -3029,11 +3029,11 @@
       <c r="L8" s="40"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="87"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="66" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="3">
@@ -3053,9 +3053,9 @@
       <c r="L9" s="40"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="87"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="81"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="3">
         <v>8</v>
       </c>
@@ -3073,7 +3073,7 @@
       <c r="L10" s="38"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="87"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="44" t="s">
         <v>83</v>
       </c>
@@ -3097,7 +3097,7 @@
       <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="45" t="s">
         <v>105</v>
       </c>
@@ -3122,18 +3122,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B4:B8"/>
     <mergeCell ref="K1:L2"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="C4:C8"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B4:B8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3144,7 +3144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DABD84-0F9A-4686-9110-0C421D5326F1}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -3161,35 +3161,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="65" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="69" t="s">
+      <c r="F1" s="84"/>
+      <c r="G1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="57" t="s">
+      <c r="H1" s="86"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="58"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3205,8 +3205,8 @@
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="76"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
@@ -3597,35 +3597,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="65" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="69" t="s">
+      <c r="F1" s="84"/>
+      <c r="G1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="57" t="s">
+      <c r="H1" s="86"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="58"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3641,8 +3641,8 @@
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="76"/>
     </row>
     <row r="3" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
